--- a/WebContent/발표/1차/3조 5차 요구사항정의서.xlsx
+++ b/WebContent/발표/1차/3조 5차 요구사항정의서.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\507-14\Desktop\project05\WebContent\발표\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\a01_javaexp\github\project05\WebContent\발표\1차\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="607" uniqueCount="356">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="607" uniqueCount="361">
   <si>
     <t>구분</t>
   </si>
@@ -1377,6 +1377,31 @@
   </si>
   <si>
     <t>4월24일</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>회원등록
+Member</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>회원서비스
+Service</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>마이페이지
+Mypage</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>관리자
+Admin</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>메인
+main</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2081,7 +2106,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="172">
+  <cellXfs count="174">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2475,7 +2500,10 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
@@ -2484,13 +2512,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
@@ -2502,58 +2536,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2568,19 +2554,52 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2597,6 +2616,18 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="38" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2961,10 +2992,10 @@
       </c>
     </row>
     <row r="3" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B3" s="137" t="s">
+      <c r="B3" s="140" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="134" t="s">
+      <c r="C3" s="131" t="s">
         <v>11</v>
       </c>
       <c r="D3" s="15" t="s">
@@ -2981,8 +3012,8 @@
       <c r="K3" s="11"/>
     </row>
     <row r="4" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B4" s="138"/>
-      <c r="C4" s="135"/>
+      <c r="B4" s="141"/>
+      <c r="C4" s="132"/>
       <c r="D4" s="13" t="s">
         <v>13</v>
       </c>
@@ -2997,8 +3028,8 @@
       <c r="K4" s="2"/>
     </row>
     <row r="5" spans="2:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B5" s="138"/>
-      <c r="C5" s="136"/>
+      <c r="B5" s="141"/>
+      <c r="C5" s="135"/>
       <c r="D5" s="16" t="s">
         <v>15</v>
       </c>
@@ -3013,8 +3044,8 @@
       <c r="K5" s="4"/>
     </row>
     <row r="6" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B6" s="138"/>
-      <c r="C6" s="134" t="s">
+      <c r="B6" s="141"/>
+      <c r="C6" s="131" t="s">
         <v>17</v>
       </c>
       <c r="D6" s="12" t="s">
@@ -3031,8 +3062,8 @@
       <c r="K6" s="9"/>
     </row>
     <row r="7" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B7" s="138"/>
-      <c r="C7" s="135"/>
+      <c r="B7" s="141"/>
+      <c r="C7" s="132"/>
       <c r="D7" s="13" t="s">
         <v>20</v>
       </c>
@@ -3047,8 +3078,8 @@
       <c r="K7" s="2"/>
     </row>
     <row r="8" spans="2:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B8" s="139"/>
-      <c r="C8" s="136"/>
+      <c r="B8" s="142"/>
+      <c r="C8" s="135"/>
       <c r="D8" s="16" t="s">
         <v>17</v>
       </c>
@@ -3065,10 +3096,10 @@
       <c r="K8" s="4"/>
     </row>
     <row r="9" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B9" s="131" t="s">
+      <c r="B9" s="139" t="s">
         <v>23</v>
       </c>
-      <c r="C9" s="134" t="s">
+      <c r="C9" s="131" t="s">
         <v>24</v>
       </c>
       <c r="D9" s="15" t="s">
@@ -3085,8 +3116,8 @@
       <c r="K9" s="11"/>
     </row>
     <row r="10" spans="2:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B10" s="132"/>
-      <c r="C10" s="136"/>
+      <c r="B10" s="133"/>
+      <c r="C10" s="135"/>
       <c r="D10" s="17" t="s">
         <v>25</v>
       </c>
@@ -3101,11 +3132,11 @@
       <c r="K10" s="4"/>
     </row>
     <row r="11" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B11" s="132"/>
-      <c r="C11" s="134" t="s">
+      <c r="B11" s="133"/>
+      <c r="C11" s="131" t="s">
         <v>29</v>
       </c>
-      <c r="D11" s="140" t="s">
+      <c r="D11" s="136" t="s">
         <v>30</v>
       </c>
       <c r="E11" s="10" t="s">
@@ -3119,9 +3150,9 @@
       <c r="K11" s="11"/>
     </row>
     <row r="12" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B12" s="132"/>
-      <c r="C12" s="135"/>
-      <c r="D12" s="141"/>
+      <c r="B12" s="133"/>
+      <c r="C12" s="132"/>
+      <c r="D12" s="138"/>
       <c r="E12" s="1" t="s">
         <v>34</v>
       </c>
@@ -3133,8 +3164,8 @@
       <c r="K12" s="2"/>
     </row>
     <row r="13" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B13" s="132"/>
-      <c r="C13" s="135"/>
+      <c r="B13" s="133"/>
+      <c r="C13" s="132"/>
       <c r="D13" s="13" t="s">
         <v>31</v>
       </c>
@@ -3149,8 +3180,8 @@
       <c r="K13" s="2"/>
     </row>
     <row r="14" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B14" s="132"/>
-      <c r="C14" s="135"/>
+      <c r="B14" s="133"/>
+      <c r="C14" s="132"/>
       <c r="D14" s="13" t="s">
         <v>32</v>
       </c>
@@ -3165,8 +3196,8 @@
       <c r="K14" s="2"/>
     </row>
     <row r="15" spans="2:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B15" s="132"/>
-      <c r="C15" s="136"/>
+      <c r="B15" s="133"/>
+      <c r="C15" s="135"/>
       <c r="D15" s="17" t="s">
         <v>35</v>
       </c>
@@ -3183,8 +3214,8 @@
       <c r="K15" s="4"/>
     </row>
     <row r="16" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B16" s="132"/>
-      <c r="C16" s="134" t="s">
+      <c r="B16" s="133"/>
+      <c r="C16" s="131" t="s">
         <v>38</v>
       </c>
       <c r="D16" s="15" t="s">
@@ -3201,8 +3232,8 @@
       <c r="K16" s="11"/>
     </row>
     <row r="17" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B17" s="132"/>
-      <c r="C17" s="135"/>
+      <c r="B17" s="133"/>
+      <c r="C17" s="132"/>
       <c r="D17" s="13" t="s">
         <v>31</v>
       </c>
@@ -3217,8 +3248,8 @@
       <c r="K17" s="2"/>
     </row>
     <row r="18" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B18" s="132"/>
-      <c r="C18" s="135"/>
+      <c r="B18" s="133"/>
+      <c r="C18" s="132"/>
       <c r="D18" s="13" t="s">
         <v>42</v>
       </c>
@@ -3233,8 +3264,8 @@
       <c r="K18" s="2"/>
     </row>
     <row r="19" spans="2:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B19" s="133"/>
-      <c r="C19" s="136"/>
+      <c r="B19" s="134"/>
+      <c r="C19" s="135"/>
       <c r="D19" s="17" t="s">
         <v>35</v>
       </c>
@@ -3249,10 +3280,10 @@
       <c r="K19" s="4"/>
     </row>
     <row r="20" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B20" s="131" t="s">
+      <c r="B20" s="139" t="s">
         <v>45</v>
       </c>
-      <c r="C20" s="134" t="s">
+      <c r="C20" s="131" t="s">
         <v>46</v>
       </c>
       <c r="D20" s="15" t="s">
@@ -3269,8 +3300,8 @@
       <c r="K20" s="11"/>
     </row>
     <row r="21" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B21" s="132"/>
-      <c r="C21" s="135"/>
+      <c r="B21" s="133"/>
+      <c r="C21" s="132"/>
       <c r="D21" s="13" t="s">
         <v>48</v>
       </c>
@@ -3285,8 +3316,8 @@
       <c r="K21" s="2"/>
     </row>
     <row r="22" spans="2:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B22" s="132"/>
-      <c r="C22" s="136"/>
+      <c r="B22" s="133"/>
+      <c r="C22" s="135"/>
       <c r="D22" s="16" t="s">
         <v>52</v>
       </c>
@@ -3301,7 +3332,7 @@
       <c r="K22" s="4"/>
     </row>
     <row r="23" spans="2:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B23" s="132"/>
+      <c r="B23" s="133"/>
       <c r="C23" s="21" t="s">
         <v>54</v>
       </c>
@@ -3319,10 +3350,10 @@
       <c r="K23" s="20"/>
     </row>
     <row r="24" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B24" s="131" t="s">
+      <c r="B24" s="139" t="s">
         <v>43</v>
       </c>
-      <c r="C24" s="134" t="s">
+      <c r="C24" s="131" t="s">
         <v>49</v>
       </c>
       <c r="D24" s="15" t="s">
@@ -3339,8 +3370,8 @@
       <c r="K24" s="11"/>
     </row>
     <row r="25" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B25" s="132"/>
-      <c r="C25" s="135"/>
+      <c r="B25" s="133"/>
+      <c r="C25" s="132"/>
       <c r="D25" s="13" t="s">
         <v>59</v>
       </c>
@@ -3355,8 +3386,8 @@
       <c r="K25" s="2"/>
     </row>
     <row r="26" spans="2:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B26" s="132"/>
-      <c r="C26" s="136"/>
+      <c r="B26" s="133"/>
+      <c r="C26" s="135"/>
       <c r="D26" s="16" t="s">
         <v>61</v>
       </c>
@@ -3371,7 +3402,7 @@
       <c r="K26" s="4"/>
     </row>
     <row r="27" spans="2:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B27" s="132"/>
+      <c r="B27" s="133"/>
       <c r="C27" s="23" t="s">
         <v>56</v>
       </c>
@@ -3389,7 +3420,7 @@
       <c r="K27" s="20"/>
     </row>
     <row r="28" spans="2:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B28" s="133"/>
+      <c r="B28" s="134"/>
       <c r="C28" s="23" t="s">
         <v>44</v>
       </c>
@@ -3427,10 +3458,10 @@
       <c r="K29" s="20"/>
     </row>
     <row r="30" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B30" s="134" t="s">
+      <c r="B30" s="131" t="s">
         <v>67</v>
       </c>
-      <c r="C30" s="140" t="s">
+      <c r="C30" s="136" t="s">
         <v>71</v>
       </c>
       <c r="D30" s="15" t="s">
@@ -3447,8 +3478,8 @@
       <c r="K30" s="11"/>
     </row>
     <row r="31" spans="2:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B31" s="135"/>
-      <c r="C31" s="142"/>
+      <c r="B31" s="132"/>
+      <c r="C31" s="137"/>
       <c r="D31" s="14" t="s">
         <v>74</v>
       </c>
@@ -3463,8 +3494,8 @@
       <c r="K31" s="27"/>
     </row>
     <row r="32" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B32" s="132"/>
-      <c r="C32" s="134" t="s">
+      <c r="B32" s="133"/>
+      <c r="C32" s="131" t="s">
         <v>85</v>
       </c>
       <c r="D32" s="15" t="s">
@@ -3481,8 +3512,8 @@
       <c r="K32" s="11"/>
     </row>
     <row r="33" spans="2:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B33" s="132"/>
-      <c r="C33" s="136"/>
+      <c r="B33" s="133"/>
+      <c r="C33" s="135"/>
       <c r="D33" s="16" t="s">
         <v>88</v>
       </c>
@@ -3497,8 +3528,8 @@
       <c r="K33" s="4"/>
     </row>
     <row r="34" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B34" s="132"/>
-      <c r="C34" s="134" t="s">
+      <c r="B34" s="133"/>
+      <c r="C34" s="131" t="s">
         <v>90</v>
       </c>
       <c r="D34" s="15" t="s">
@@ -3515,8 +3546,8 @@
       <c r="K34" s="11"/>
     </row>
     <row r="35" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B35" s="132"/>
-      <c r="C35" s="135"/>
+      <c r="B35" s="133"/>
+      <c r="C35" s="132"/>
       <c r="D35" s="13"/>
       <c r="E35" s="1" t="s">
         <v>34</v>
@@ -3529,8 +3560,8 @@
       <c r="K35" s="2"/>
     </row>
     <row r="36" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B36" s="132"/>
-      <c r="C36" s="135"/>
+      <c r="B36" s="133"/>
+      <c r="C36" s="132"/>
       <c r="D36" s="13" t="s">
         <v>31</v>
       </c>
@@ -3545,8 +3576,8 @@
       <c r="K36" s="2"/>
     </row>
     <row r="37" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B37" s="132"/>
-      <c r="C37" s="135"/>
+      <c r="B37" s="133"/>
+      <c r="C37" s="132"/>
       <c r="D37" s="13" t="s">
         <v>92</v>
       </c>
@@ -3561,8 +3592,8 @@
       <c r="K37" s="2"/>
     </row>
     <row r="38" spans="2:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B38" s="132"/>
-      <c r="C38" s="136"/>
+      <c r="B38" s="133"/>
+      <c r="C38" s="135"/>
       <c r="D38" s="16" t="s">
         <v>94</v>
       </c>
@@ -3577,8 +3608,8 @@
       <c r="K38" s="4"/>
     </row>
     <row r="39" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B39" s="132"/>
-      <c r="C39" s="134" t="s">
+      <c r="B39" s="133"/>
+      <c r="C39" s="131" t="s">
         <v>38</v>
       </c>
       <c r="D39" s="15" t="s">
@@ -3595,8 +3626,8 @@
       <c r="K39" s="11"/>
     </row>
     <row r="40" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B40" s="132"/>
-      <c r="C40" s="135"/>
+      <c r="B40" s="133"/>
+      <c r="C40" s="132"/>
       <c r="D40" s="13" t="s">
         <v>31</v>
       </c>
@@ -3611,8 +3642,8 @@
       <c r="K40" s="2"/>
     </row>
     <row r="41" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B41" s="132"/>
-      <c r="C41" s="135"/>
+      <c r="B41" s="133"/>
+      <c r="C41" s="132"/>
       <c r="D41" s="13" t="s">
         <v>92</v>
       </c>
@@ -3627,8 +3658,8 @@
       <c r="K41" s="2"/>
     </row>
     <row r="42" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B42" s="132"/>
-      <c r="C42" s="135"/>
+      <c r="B42" s="133"/>
+      <c r="C42" s="132"/>
       <c r="D42" s="13" t="s">
         <v>35</v>
       </c>
@@ -3643,8 +3674,8 @@
       <c r="K42" s="2"/>
     </row>
     <row r="43" spans="2:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B43" s="132"/>
-      <c r="C43" s="136"/>
+      <c r="B43" s="133"/>
+      <c r="C43" s="135"/>
       <c r="D43" s="16" t="s">
         <v>97</v>
       </c>
@@ -3659,8 +3690,8 @@
       <c r="K43" s="4"/>
     </row>
     <row r="44" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B44" s="132"/>
-      <c r="C44" s="134" t="s">
+      <c r="B44" s="133"/>
+      <c r="C44" s="131" t="s">
         <v>76</v>
       </c>
       <c r="D44" s="15" t="s">
@@ -3677,8 +3708,8 @@
       <c r="K44" s="11"/>
     </row>
     <row r="45" spans="2:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B45" s="132"/>
-      <c r="C45" s="136"/>
+      <c r="B45" s="133"/>
+      <c r="C45" s="135"/>
       <c r="D45" s="16" t="s">
         <v>79</v>
       </c>
@@ -3693,8 +3724,8 @@
       <c r="K45" s="4"/>
     </row>
     <row r="46" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B46" s="132"/>
-      <c r="C46" s="134" t="s">
+      <c r="B46" s="133"/>
+      <c r="C46" s="131" t="s">
         <v>81</v>
       </c>
       <c r="D46" s="15" t="s">
@@ -3711,8 +3742,8 @@
       <c r="K46" s="11"/>
     </row>
     <row r="47" spans="2:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B47" s="132"/>
-      <c r="C47" s="136"/>
+      <c r="B47" s="133"/>
+      <c r="C47" s="135"/>
       <c r="D47" s="16" t="s">
         <v>83</v>
       </c>
@@ -3727,8 +3758,8 @@
       <c r="K47" s="4"/>
     </row>
     <row r="48" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B48" s="132"/>
-      <c r="C48" s="134" t="s">
+      <c r="B48" s="133"/>
+      <c r="C48" s="131" t="s">
         <v>56</v>
       </c>
       <c r="D48" s="15" t="s">
@@ -3745,8 +3776,8 @@
       <c r="K48" s="11"/>
     </row>
     <row r="49" spans="2:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B49" s="133"/>
-      <c r="C49" s="136"/>
+      <c r="B49" s="134"/>
+      <c r="C49" s="135"/>
       <c r="D49" s="16" t="s">
         <v>101</v>
       </c>
@@ -3762,6 +3793,18 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="B24:B28"/>
+    <mergeCell ref="C24:C26"/>
+    <mergeCell ref="B3:B8"/>
+    <mergeCell ref="C3:C5"/>
+    <mergeCell ref="C6:C8"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="C11:C15"/>
+    <mergeCell ref="D11:D12"/>
+    <mergeCell ref="C16:C19"/>
+    <mergeCell ref="B9:B19"/>
+    <mergeCell ref="B20:B23"/>
+    <mergeCell ref="C20:C22"/>
     <mergeCell ref="B30:B49"/>
     <mergeCell ref="C39:C43"/>
     <mergeCell ref="C34:C38"/>
@@ -3770,18 +3813,6 @@
     <mergeCell ref="C48:C49"/>
     <mergeCell ref="C46:C47"/>
     <mergeCell ref="C44:C45"/>
-    <mergeCell ref="D11:D12"/>
-    <mergeCell ref="C16:C19"/>
-    <mergeCell ref="B9:B19"/>
-    <mergeCell ref="B20:B23"/>
-    <mergeCell ref="C20:C22"/>
-    <mergeCell ref="B24:B28"/>
-    <mergeCell ref="C24:C26"/>
-    <mergeCell ref="B3:B8"/>
-    <mergeCell ref="C3:C5"/>
-    <mergeCell ref="C6:C8"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="C11:C15"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3811,15 +3842,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="6.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="147"/>
-      <c r="B1" s="148"/>
-      <c r="C1" s="148"/>
-      <c r="D1" s="148"/>
-      <c r="E1" s="148"/>
-      <c r="F1" s="148"/>
-      <c r="G1" s="148"/>
-      <c r="H1" s="148"/>
-      <c r="I1" s="149"/>
+      <c r="A1" s="154"/>
+      <c r="B1" s="155"/>
+      <c r="C1" s="155"/>
+      <c r="D1" s="155"/>
+      <c r="E1" s="155"/>
+      <c r="F1" s="155"/>
+      <c r="G1" s="155"/>
+      <c r="H1" s="155"/>
+      <c r="I1" s="156"/>
     </row>
     <row r="2" spans="1:9" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="28" t="s">
@@ -3851,21 +3882,21 @@
       </c>
     </row>
     <row r="3" spans="1:9" ht="6.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="158"/>
-      <c r="B3" s="159"/>
-      <c r="C3" s="159"/>
-      <c r="D3" s="159"/>
-      <c r="E3" s="159"/>
-      <c r="F3" s="159"/>
-      <c r="G3" s="159"/>
-      <c r="H3" s="159"/>
-      <c r="I3" s="160"/>
+      <c r="A3" s="145"/>
+      <c r="B3" s="146"/>
+      <c r="C3" s="146"/>
+      <c r="D3" s="146"/>
+      <c r="E3" s="146"/>
+      <c r="F3" s="146"/>
+      <c r="G3" s="146"/>
+      <c r="H3" s="146"/>
+      <c r="I3" s="147"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A4" s="161" t="s">
+      <c r="A4" s="148" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="155" t="s">
+      <c r="B4" s="151" t="s">
         <v>11</v>
       </c>
       <c r="C4" s="37" t="s">
@@ -3881,8 +3912,8 @@
       <c r="I4" s="32"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A5" s="153"/>
-      <c r="B5" s="143"/>
+      <c r="A5" s="149"/>
+      <c r="B5" s="152"/>
       <c r="C5" s="38" t="s">
         <v>13</v>
       </c>
@@ -3896,8 +3927,8 @@
       <c r="I5" s="34"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A6" s="153"/>
-      <c r="B6" s="143"/>
+      <c r="A6" s="149"/>
+      <c r="B6" s="152"/>
       <c r="C6" s="38" t="s">
         <v>15</v>
       </c>
@@ -3911,8 +3942,8 @@
       <c r="I6" s="34"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A7" s="153"/>
-      <c r="B7" s="143" t="s">
+      <c r="A7" s="149"/>
+      <c r="B7" s="152" t="s">
         <v>17</v>
       </c>
       <c r="C7" s="38" t="s">
@@ -3928,8 +3959,8 @@
       <c r="I7" s="34"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A8" s="153"/>
-      <c r="B8" s="143"/>
+      <c r="A8" s="149"/>
+      <c r="B8" s="152"/>
       <c r="C8" s="38" t="s">
         <v>20</v>
       </c>
@@ -3943,8 +3974,8 @@
       <c r="I8" s="34"/>
     </row>
     <row r="9" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="162"/>
-      <c r="B9" s="163"/>
+      <c r="A9" s="150"/>
+      <c r="B9" s="153"/>
       <c r="C9" s="39" t="s">
         <v>17</v>
       </c>
@@ -3958,10 +3989,10 @@
       <c r="I9" s="36"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A10" s="150" t="s">
+      <c r="A10" s="143" t="s">
         <v>23</v>
       </c>
-      <c r="B10" s="156" t="s">
+      <c r="B10" s="160" t="s">
         <v>103</v>
       </c>
       <c r="C10" s="37" t="s">
@@ -3977,8 +4008,8 @@
       <c r="I10" s="32"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A11" s="151"/>
-      <c r="B11" s="145"/>
+      <c r="A11" s="144"/>
+      <c r="B11" s="161"/>
       <c r="C11" s="38" t="s">
         <v>105</v>
       </c>
@@ -3992,8 +4023,8 @@
       <c r="I11" s="34"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A12" s="151"/>
-      <c r="B12" s="145"/>
+      <c r="A12" s="144"/>
+      <c r="B12" s="161"/>
       <c r="C12" s="38" t="s">
         <v>92</v>
       </c>
@@ -4007,8 +4038,8 @@
       <c r="I12" s="34"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A13" s="151"/>
-      <c r="B13" s="146"/>
+      <c r="A13" s="144"/>
+      <c r="B13" s="159"/>
       <c r="C13" s="38" t="s">
         <v>109</v>
       </c>
@@ -4024,8 +4055,8 @@
       <c r="I13" s="34"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A14" s="151"/>
-      <c r="B14" s="144" t="s">
+      <c r="A14" s="144"/>
+      <c r="B14" s="162" t="s">
         <v>180</v>
       </c>
       <c r="C14" s="38" t="s">
@@ -4041,8 +4072,8 @@
       <c r="I14" s="34"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A15" s="151"/>
-      <c r="B15" s="145"/>
+      <c r="A15" s="144"/>
+      <c r="B15" s="161"/>
       <c r="C15" s="38" t="s">
         <v>184</v>
       </c>
@@ -4056,8 +4087,8 @@
       <c r="I15" s="34"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A16" s="151"/>
-      <c r="B16" s="144" t="s">
+      <c r="A16" s="144"/>
+      <c r="B16" s="162" t="s">
         <v>111</v>
       </c>
       <c r="C16" s="58" t="s">
@@ -4073,8 +4104,8 @@
       <c r="I16" s="34"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A17" s="151"/>
-      <c r="B17" s="145"/>
+      <c r="A17" s="144"/>
+      <c r="B17" s="161"/>
       <c r="C17" s="38" t="s">
         <v>105</v>
       </c>
@@ -4088,8 +4119,8 @@
       <c r="I17" s="34"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A18" s="151"/>
-      <c r="B18" s="145"/>
+      <c r="A18" s="144"/>
+      <c r="B18" s="161"/>
       <c r="C18" s="38" t="s">
         <v>113</v>
       </c>
@@ -4105,8 +4136,8 @@
       <c r="I18" s="34"/>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A19" s="151"/>
-      <c r="B19" s="146"/>
+      <c r="A19" s="144"/>
+      <c r="B19" s="159"/>
       <c r="C19" s="38" t="s">
         <v>109</v>
       </c>
@@ -4120,8 +4151,8 @@
       <c r="I19" s="34"/>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A20" s="151"/>
-      <c r="B20" s="144" t="s">
+      <c r="A20" s="144"/>
+      <c r="B20" s="162" t="s">
         <v>193</v>
       </c>
       <c r="C20" s="59" t="s">
@@ -4137,8 +4168,8 @@
       <c r="I20" s="34"/>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A21" s="151"/>
-      <c r="B21" s="146"/>
+      <c r="A21" s="144"/>
+      <c r="B21" s="159"/>
       <c r="C21" s="59" t="s">
         <v>194</v>
       </c>
@@ -4152,8 +4183,8 @@
       <c r="I21" s="34"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A22" s="151"/>
-      <c r="B22" s="144" t="s">
+      <c r="A22" s="144"/>
+      <c r="B22" s="162" t="s">
         <v>115</v>
       </c>
       <c r="C22" s="38" t="s">
@@ -4169,8 +4200,8 @@
       <c r="I22" s="34"/>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A23" s="151"/>
-      <c r="B23" s="145"/>
+      <c r="A23" s="144"/>
+      <c r="B23" s="161"/>
       <c r="C23" s="38" t="s">
         <v>118</v>
       </c>
@@ -4184,8 +4215,8 @@
       <c r="I23" s="34"/>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A24" s="151"/>
-      <c r="B24" s="145"/>
+      <c r="A24" s="144"/>
+      <c r="B24" s="161"/>
       <c r="C24" s="38" t="s">
         <v>120</v>
       </c>
@@ -4199,8 +4230,8 @@
       <c r="I24" s="34"/>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A25" s="151"/>
-      <c r="B25" s="146"/>
+      <c r="A25" s="144"/>
+      <c r="B25" s="159"/>
       <c r="C25" s="38" t="s">
         <v>122</v>
       </c>
@@ -4214,8 +4245,8 @@
       <c r="I25" s="34"/>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A26" s="151"/>
-      <c r="B26" s="144" t="s">
+      <c r="A26" s="144"/>
+      <c r="B26" s="162" t="s">
         <v>174</v>
       </c>
       <c r="C26" s="38" t="s">
@@ -4231,8 +4262,8 @@
       <c r="I26" s="34"/>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A27" s="151"/>
-      <c r="B27" s="145"/>
+      <c r="A27" s="144"/>
+      <c r="B27" s="161"/>
       <c r="C27" s="38" t="s">
         <v>178</v>
       </c>
@@ -4246,8 +4277,8 @@
       <c r="I27" s="34"/>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A28" s="151"/>
-      <c r="B28" s="145"/>
+      <c r="A28" s="144"/>
+      <c r="B28" s="161"/>
       <c r="C28" s="38" t="s">
         <v>182</v>
       </c>
@@ -4261,8 +4292,8 @@
       <c r="I28" s="34"/>
     </row>
     <row r="29" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="151"/>
-      <c r="B29" s="145"/>
+      <c r="A29" s="144"/>
+      <c r="B29" s="161"/>
       <c r="C29" s="58" t="s">
         <v>176</v>
       </c>
@@ -4276,10 +4307,10 @@
       <c r="I29" s="45"/>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A30" s="150" t="s">
+      <c r="A30" s="143" t="s">
         <v>45</v>
       </c>
-      <c r="B30" s="155" t="s">
+      <c r="B30" s="151" t="s">
         <v>127</v>
       </c>
       <c r="C30" s="62" t="s">
@@ -4295,8 +4326,8 @@
       <c r="I30" s="32"/>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A31" s="151"/>
-      <c r="B31" s="143"/>
+      <c r="A31" s="144"/>
+      <c r="B31" s="152"/>
       <c r="C31" s="63" t="s">
         <v>129</v>
       </c>
@@ -4310,8 +4341,8 @@
       <c r="I31" s="34"/>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A32" s="151"/>
-      <c r="B32" s="143"/>
+      <c r="A32" s="144"/>
+      <c r="B32" s="152"/>
       <c r="C32" s="63" t="s">
         <v>132</v>
       </c>
@@ -4325,8 +4356,8 @@
       <c r="I32" s="34"/>
     </row>
     <row r="33" spans="1:16384" x14ac:dyDescent="0.3">
-      <c r="A33" s="151"/>
-      <c r="B33" s="143"/>
+      <c r="A33" s="144"/>
+      <c r="B33" s="152"/>
       <c r="C33" s="63" t="s">
         <v>125</v>
       </c>
@@ -4340,8 +4371,8 @@
       <c r="I33" s="34"/>
     </row>
     <row r="34" spans="1:16384" x14ac:dyDescent="0.3">
-      <c r="A34" s="151"/>
-      <c r="B34" s="143" t="s">
+      <c r="A34" s="144"/>
+      <c r="B34" s="152" t="s">
         <v>133</v>
       </c>
       <c r="C34" s="63" t="s">
@@ -4357,8 +4388,8 @@
       <c r="I34" s="45"/>
     </row>
     <row r="35" spans="1:16384" s="48" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="151"/>
-      <c r="B35" s="143"/>
+      <c r="A35" s="144"/>
+      <c r="B35" s="152"/>
       <c r="C35" s="63" t="s">
         <v>134</v>
       </c>
@@ -20747,8 +20778,8 @@
       <c r="XFD35" s="46"/>
     </row>
     <row r="36" spans="1:16384" x14ac:dyDescent="0.3">
-      <c r="A36" s="151"/>
-      <c r="B36" s="143"/>
+      <c r="A36" s="144"/>
+      <c r="B36" s="152"/>
       <c r="C36" s="64" t="s">
         <v>187</v>
       </c>
@@ -20760,8 +20791,8 @@
       <c r="I36" s="56"/>
     </row>
     <row r="37" spans="1:16384" x14ac:dyDescent="0.3">
-      <c r="A37" s="151"/>
-      <c r="B37" s="143" t="s">
+      <c r="A37" s="144"/>
+      <c r="B37" s="152" t="s">
         <v>136</v>
       </c>
       <c r="C37" s="63" t="s">
@@ -20777,8 +20808,8 @@
       <c r="I37" s="34"/>
     </row>
     <row r="38" spans="1:16384" x14ac:dyDescent="0.3">
-      <c r="A38" s="151"/>
-      <c r="B38" s="143"/>
+      <c r="A38" s="144"/>
+      <c r="B38" s="152"/>
       <c r="C38" s="63" t="s">
         <v>92</v>
       </c>
@@ -20792,7 +20823,7 @@
       <c r="I38" s="34"/>
     </row>
     <row r="39" spans="1:16384" x14ac:dyDescent="0.3">
-      <c r="A39" s="151"/>
+      <c r="A39" s="144"/>
       <c r="B39" s="57" t="s">
         <v>139</v>
       </c>
@@ -20809,10 +20840,10 @@
       <c r="I39" s="34"/>
     </row>
     <row r="40" spans="1:16384" x14ac:dyDescent="0.3">
-      <c r="A40" s="152" t="s">
+      <c r="A40" s="157" t="s">
         <v>67</v>
       </c>
-      <c r="B40" s="146" t="s">
+      <c r="B40" s="159" t="s">
         <v>71</v>
       </c>
       <c r="C40" s="41" t="s">
@@ -20828,8 +20859,8 @@
       <c r="I40" s="56"/>
     </row>
     <row r="41" spans="1:16384" x14ac:dyDescent="0.3">
-      <c r="A41" s="153"/>
-      <c r="B41" s="143"/>
+      <c r="A41" s="149"/>
+      <c r="B41" s="152"/>
       <c r="C41" s="40" t="s">
         <v>74</v>
       </c>
@@ -20843,8 +20874,8 @@
       <c r="I41" s="34"/>
     </row>
     <row r="42" spans="1:16384" x14ac:dyDescent="0.3">
-      <c r="A42" s="153"/>
-      <c r="B42" s="143" t="s">
+      <c r="A42" s="149"/>
+      <c r="B42" s="152" t="s">
         <v>152</v>
       </c>
       <c r="C42" s="40" t="s">
@@ -20860,8 +20891,8 @@
       <c r="I42" s="34"/>
     </row>
     <row r="43" spans="1:16384" x14ac:dyDescent="0.3">
-      <c r="A43" s="153"/>
-      <c r="B43" s="143"/>
+      <c r="A43" s="149"/>
+      <c r="B43" s="152"/>
       <c r="C43" s="40" t="s">
         <v>144</v>
       </c>
@@ -20875,11 +20906,11 @@
       <c r="I43" s="34"/>
     </row>
     <row r="44" spans="1:16384" x14ac:dyDescent="0.3">
-      <c r="A44" s="153"/>
-      <c r="B44" s="143" t="s">
+      <c r="A44" s="149"/>
+      <c r="B44" s="152" t="s">
         <v>163</v>
       </c>
-      <c r="C44" s="144" t="s">
+      <c r="C44" s="162" t="s">
         <v>162</v>
       </c>
       <c r="D44" s="33" t="s">
@@ -20892,9 +20923,9 @@
       <c r="I44" s="34"/>
     </row>
     <row r="45" spans="1:16384" x14ac:dyDescent="0.3">
-      <c r="A45" s="153"/>
-      <c r="B45" s="143"/>
-      <c r="C45" s="146"/>
+      <c r="A45" s="149"/>
+      <c r="B45" s="152"/>
+      <c r="C45" s="159"/>
       <c r="D45" s="33" t="s">
         <v>164</v>
       </c>
@@ -20905,8 +20936,8 @@
       <c r="I45" s="34"/>
     </row>
     <row r="46" spans="1:16384" x14ac:dyDescent="0.3">
-      <c r="A46" s="153"/>
-      <c r="B46" s="143"/>
+      <c r="A46" s="149"/>
+      <c r="B46" s="152"/>
       <c r="C46" s="40" t="s">
         <v>112</v>
       </c>
@@ -20920,8 +20951,8 @@
       <c r="I46" s="34"/>
     </row>
     <row r="47" spans="1:16384" x14ac:dyDescent="0.3">
-      <c r="A47" s="153"/>
-      <c r="B47" s="143"/>
+      <c r="A47" s="149"/>
+      <c r="B47" s="152"/>
       <c r="C47" s="40" t="s">
         <v>106</v>
       </c>
@@ -20935,8 +20966,8 @@
       <c r="I47" s="34"/>
     </row>
     <row r="48" spans="1:16384" x14ac:dyDescent="0.3">
-      <c r="A48" s="153"/>
-      <c r="B48" s="143"/>
+      <c r="A48" s="149"/>
+      <c r="B48" s="152"/>
       <c r="C48" s="40" t="s">
         <v>147</v>
       </c>
@@ -20950,8 +20981,8 @@
       <c r="I48" s="34"/>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A49" s="153"/>
-      <c r="B49" s="143" t="s">
+      <c r="A49" s="149"/>
+      <c r="B49" s="152" t="s">
         <v>153</v>
       </c>
       <c r="C49" s="40" t="s">
@@ -20967,8 +20998,8 @@
       <c r="I49" s="34"/>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A50" s="153"/>
-      <c r="B50" s="143"/>
+      <c r="A50" s="149"/>
+      <c r="B50" s="152"/>
       <c r="C50" s="40" t="s">
         <v>112</v>
       </c>
@@ -20982,8 +21013,8 @@
       <c r="I50" s="34"/>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A51" s="153"/>
-      <c r="B51" s="143"/>
+      <c r="A51" s="149"/>
+      <c r="B51" s="152"/>
       <c r="C51" s="40" t="s">
         <v>106</v>
       </c>
@@ -20997,8 +21028,8 @@
       <c r="I51" s="34"/>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A52" s="153"/>
-      <c r="B52" s="143"/>
+      <c r="A52" s="149"/>
+      <c r="B52" s="152"/>
       <c r="C52" s="40" t="s">
         <v>147</v>
       </c>
@@ -21012,8 +21043,8 @@
       <c r="I52" s="34"/>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A53" s="153"/>
-      <c r="B53" s="144" t="s">
+      <c r="A53" s="149"/>
+      <c r="B53" s="162" t="s">
         <v>154</v>
       </c>
       <c r="C53" s="40" t="s">
@@ -21029,8 +21060,8 @@
       <c r="I53" s="34"/>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A54" s="153"/>
-      <c r="B54" s="145"/>
+      <c r="A54" s="149"/>
+      <c r="B54" s="161"/>
       <c r="C54" s="49" t="s">
         <v>159</v>
       </c>
@@ -21044,8 +21075,8 @@
       <c r="I54" s="34"/>
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A55" s="153"/>
-      <c r="B55" s="143" t="s">
+      <c r="A55" s="149"/>
+      <c r="B55" s="152" t="s">
         <v>76</v>
       </c>
       <c r="C55" s="40" t="s">
@@ -21061,8 +21092,8 @@
       <c r="I55" s="34"/>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A56" s="153"/>
-      <c r="B56" s="143"/>
+      <c r="A56" s="149"/>
+      <c r="B56" s="152"/>
       <c r="C56" s="40" t="s">
         <v>79</v>
       </c>
@@ -21076,8 +21107,8 @@
       <c r="I56" s="34"/>
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A57" s="153"/>
-      <c r="B57" s="144" t="s">
+      <c r="A57" s="149"/>
+      <c r="B57" s="162" t="s">
         <v>81</v>
       </c>
       <c r="C57" s="40" t="s">
@@ -21093,8 +21124,8 @@
       <c r="I57" s="34"/>
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A58" s="154"/>
-      <c r="B58" s="146"/>
+      <c r="A58" s="158"/>
+      <c r="B58" s="159"/>
       <c r="C58" s="50" t="s">
         <v>167</v>
       </c>
@@ -21108,8 +21139,8 @@
       <c r="I58" s="45"/>
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A59" s="154"/>
-      <c r="B59" s="144" t="s">
+      <c r="A59" s="158"/>
+      <c r="B59" s="162" t="s">
         <v>172</v>
       </c>
       <c r="C59" s="50" t="s">
@@ -21125,8 +21156,8 @@
       <c r="I59" s="45"/>
     </row>
     <row r="60" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A60" s="154"/>
-      <c r="B60" s="157"/>
+      <c r="A60" s="158"/>
+      <c r="B60" s="163"/>
       <c r="C60" s="42" t="s">
         <v>171</v>
       </c>
@@ -21389,11 +21420,11 @@
     </row>
   </sheetData>
   <mergeCells count="26">
-    <mergeCell ref="A30:A39"/>
-    <mergeCell ref="A3:I3"/>
-    <mergeCell ref="A4:A9"/>
-    <mergeCell ref="B4:B6"/>
-    <mergeCell ref="B7:B9"/>
+    <mergeCell ref="B49:B52"/>
+    <mergeCell ref="B55:B56"/>
+    <mergeCell ref="B26:B29"/>
+    <mergeCell ref="B57:B58"/>
+    <mergeCell ref="B20:B21"/>
     <mergeCell ref="A1:I1"/>
     <mergeCell ref="A10:A29"/>
     <mergeCell ref="A40:A60"/>
@@ -21410,11 +21441,11 @@
     <mergeCell ref="C44:C45"/>
     <mergeCell ref="B59:B60"/>
     <mergeCell ref="B44:B48"/>
-    <mergeCell ref="B49:B52"/>
-    <mergeCell ref="B55:B56"/>
-    <mergeCell ref="B26:B29"/>
-    <mergeCell ref="B57:B58"/>
-    <mergeCell ref="B20:B21"/>
+    <mergeCell ref="A30:A39"/>
+    <mergeCell ref="A3:I3"/>
+    <mergeCell ref="A4:A9"/>
+    <mergeCell ref="B4:B6"/>
+    <mergeCell ref="B7:B9"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -21457,15 +21488,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="6.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="147"/>
-      <c r="B1" s="148"/>
-      <c r="C1" s="148"/>
-      <c r="D1" s="148"/>
-      <c r="E1" s="148"/>
-      <c r="F1" s="148"/>
-      <c r="G1" s="148"/>
-      <c r="H1" s="148"/>
-      <c r="I1" s="149"/>
+      <c r="A1" s="154"/>
+      <c r="B1" s="155"/>
+      <c r="C1" s="155"/>
+      <c r="D1" s="155"/>
+      <c r="E1" s="155"/>
+      <c r="F1" s="155"/>
+      <c r="G1" s="155"/>
+      <c r="H1" s="155"/>
+      <c r="I1" s="156"/>
     </row>
     <row r="2" spans="1:9" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="28" t="s">
@@ -21497,21 +21528,21 @@
       </c>
     </row>
     <row r="3" spans="1:9" ht="6.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="158"/>
-      <c r="B3" s="159"/>
-      <c r="C3" s="159"/>
-      <c r="D3" s="159"/>
-      <c r="E3" s="159"/>
-      <c r="F3" s="159"/>
-      <c r="G3" s="159"/>
-      <c r="H3" s="159"/>
-      <c r="I3" s="160"/>
+      <c r="A3" s="145"/>
+      <c r="B3" s="146"/>
+      <c r="C3" s="146"/>
+      <c r="D3" s="146"/>
+      <c r="E3" s="146"/>
+      <c r="F3" s="146"/>
+      <c r="G3" s="146"/>
+      <c r="H3" s="146"/>
+      <c r="I3" s="147"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A4" s="150" t="s">
+      <c r="A4" s="143" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="156" t="s">
+      <c r="B4" s="160" t="s">
         <v>11</v>
       </c>
       <c r="C4" s="88" t="s">
@@ -21522,15 +21553,15 @@
       </c>
       <c r="E4" s="31"/>
       <c r="F4" s="31"/>
-      <c r="G4" s="156" t="s">
+      <c r="G4" s="160" t="s">
         <v>284</v>
       </c>
       <c r="H4" s="31"/>
       <c r="I4" s="32"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A5" s="151"/>
-      <c r="B5" s="145"/>
+      <c r="A5" s="144"/>
+      <c r="B5" s="161"/>
       <c r="C5" s="89" t="s">
         <v>13</v>
       </c>
@@ -21539,13 +21570,13 @@
       </c>
       <c r="E5" s="33"/>
       <c r="F5" s="33"/>
-      <c r="G5" s="145"/>
+      <c r="G5" s="161"/>
       <c r="H5" s="33"/>
       <c r="I5" s="34"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A6" s="151"/>
-      <c r="B6" s="146"/>
+      <c r="A6" s="144"/>
+      <c r="B6" s="159"/>
       <c r="C6" s="89" t="s">
         <v>15</v>
       </c>
@@ -21554,13 +21585,13 @@
       </c>
       <c r="E6" s="33"/>
       <c r="F6" s="33"/>
-      <c r="G6" s="145"/>
+      <c r="G6" s="161"/>
       <c r="H6" s="33"/>
       <c r="I6" s="34"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A7" s="151"/>
-      <c r="B7" s="144" t="s">
+      <c r="A7" s="144"/>
+      <c r="B7" s="162" t="s">
         <v>253</v>
       </c>
       <c r="C7" s="89" t="s">
@@ -21571,13 +21602,13 @@
       </c>
       <c r="E7" s="65"/>
       <c r="F7" s="33"/>
-      <c r="G7" s="145"/>
+      <c r="G7" s="161"/>
       <c r="H7" s="33"/>
       <c r="I7" s="34"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A8" s="151"/>
-      <c r="B8" s="145"/>
+      <c r="A8" s="144"/>
+      <c r="B8" s="161"/>
       <c r="C8" s="89" t="s">
         <v>254</v>
       </c>
@@ -21586,13 +21617,13 @@
       </c>
       <c r="E8" s="67"/>
       <c r="F8" s="33"/>
-      <c r="G8" s="145"/>
+      <c r="G8" s="161"/>
       <c r="H8" s="33"/>
       <c r="I8" s="34"/>
     </row>
     <row r="9" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="164"/>
-      <c r="B9" s="157"/>
+      <c r="B9" s="163"/>
       <c r="C9" s="90" t="s">
         <v>253</v>
       </c>
@@ -21601,15 +21632,15 @@
       </c>
       <c r="E9" s="66"/>
       <c r="F9" s="35"/>
-      <c r="G9" s="157"/>
+      <c r="G9" s="163"/>
       <c r="H9" s="35"/>
       <c r="I9" s="36"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A10" s="150" t="s">
+      <c r="A10" s="143" t="s">
         <v>198</v>
       </c>
-      <c r="B10" s="156" t="s">
+      <c r="B10" s="160" t="s">
         <v>199</v>
       </c>
       <c r="C10" s="96" t="s">
@@ -21622,15 +21653,15 @@
         <v>202</v>
       </c>
       <c r="F10" s="31"/>
-      <c r="G10" s="156" t="s">
+      <c r="G10" s="160" t="s">
         <v>288</v>
       </c>
       <c r="H10" s="31"/>
       <c r="I10" s="32"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A11" s="151"/>
-      <c r="B11" s="145"/>
+      <c r="A11" s="144"/>
+      <c r="B11" s="161"/>
       <c r="C11" s="97" t="s">
         <v>203</v>
       </c>
@@ -21641,13 +21672,13 @@
         <v>205</v>
       </c>
       <c r="F11" s="33"/>
-      <c r="G11" s="145"/>
+      <c r="G11" s="161"/>
       <c r="H11" s="33"/>
       <c r="I11" s="34"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A12" s="151"/>
-      <c r="B12" s="145"/>
+      <c r="A12" s="144"/>
+      <c r="B12" s="161"/>
       <c r="C12" s="97" t="s">
         <v>206</v>
       </c>
@@ -21658,13 +21689,13 @@
         <v>208</v>
       </c>
       <c r="F12" s="33"/>
-      <c r="G12" s="145"/>
+      <c r="G12" s="161"/>
       <c r="H12" s="33"/>
       <c r="I12" s="34"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A13" s="151"/>
-      <c r="B13" s="146"/>
+      <c r="A13" s="144"/>
+      <c r="B13" s="159"/>
       <c r="C13" s="97" t="s">
         <v>209</v>
       </c>
@@ -21673,13 +21704,13 @@
       </c>
       <c r="E13" s="33"/>
       <c r="F13" s="33"/>
-      <c r="G13" s="146"/>
+      <c r="G13" s="159"/>
       <c r="H13" s="33"/>
       <c r="I13" s="34"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A14" s="151"/>
-      <c r="B14" s="144" t="s">
+      <c r="A14" s="144"/>
+      <c r="B14" s="162" t="s">
         <v>216</v>
       </c>
       <c r="C14" s="98" t="s">
@@ -21692,15 +21723,15 @@
         <v>219</v>
       </c>
       <c r="F14" s="33"/>
-      <c r="G14" s="144" t="s">
+      <c r="G14" s="162" t="s">
         <v>288</v>
       </c>
       <c r="H14" s="33"/>
       <c r="I14" s="34"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A15" s="151"/>
-      <c r="B15" s="145"/>
+      <c r="A15" s="144"/>
+      <c r="B15" s="161"/>
       <c r="C15" s="97" t="s">
         <v>220</v>
       </c>
@@ -21711,13 +21742,13 @@
         <v>205</v>
       </c>
       <c r="F15" s="33"/>
-      <c r="G15" s="145"/>
+      <c r="G15" s="161"/>
       <c r="H15" s="33"/>
       <c r="I15" s="34"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A16" s="151"/>
-      <c r="B16" s="146"/>
+      <c r="A16" s="144"/>
+      <c r="B16" s="159"/>
       <c r="C16" s="97" t="s">
         <v>222</v>
       </c>
@@ -21728,13 +21759,13 @@
         <v>224</v>
       </c>
       <c r="F16" s="33"/>
-      <c r="G16" s="146"/>
+      <c r="G16" s="159"/>
       <c r="H16" s="33"/>
       <c r="I16" s="34"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A17" s="151"/>
-      <c r="B17" s="144" t="s">
+      <c r="A17" s="144"/>
+      <c r="B17" s="162" t="s">
         <v>211</v>
       </c>
       <c r="C17" s="94" t="s">
@@ -21747,15 +21778,15 @@
         <v>282</v>
       </c>
       <c r="F17" s="33"/>
-      <c r="G17" s="144" t="s">
+      <c r="G17" s="162" t="s">
         <v>292</v>
       </c>
       <c r="H17" s="33"/>
       <c r="I17" s="34"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A18" s="151"/>
-      <c r="B18" s="146"/>
+      <c r="A18" s="144"/>
+      <c r="B18" s="159"/>
       <c r="C18" s="94" t="s">
         <v>214</v>
       </c>
@@ -21766,13 +21797,13 @@
         <v>281</v>
       </c>
       <c r="F18" s="33"/>
-      <c r="G18" s="146"/>
+      <c r="G18" s="159"/>
       <c r="H18" s="33"/>
       <c r="I18" s="34"/>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A19" s="151"/>
-      <c r="B19" s="144" t="s">
+      <c r="A19" s="144"/>
+      <c r="B19" s="162" t="s">
         <v>115</v>
       </c>
       <c r="C19" s="99" t="s">
@@ -21783,15 +21814,15 @@
       </c>
       <c r="E19" s="33"/>
       <c r="F19" s="33"/>
-      <c r="G19" s="145" t="s">
+      <c r="G19" s="161" t="s">
         <v>291</v>
       </c>
       <c r="H19" s="33"/>
       <c r="I19" s="34"/>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A20" s="151"/>
-      <c r="B20" s="146"/>
+      <c r="A20" s="144"/>
+      <c r="B20" s="159"/>
       <c r="C20" s="99" t="s">
         <v>118</v>
       </c>
@@ -21800,12 +21831,12 @@
       </c>
       <c r="E20" s="33"/>
       <c r="F20" s="33"/>
-      <c r="G20" s="145"/>
+      <c r="G20" s="161"/>
       <c r="H20" s="33"/>
       <c r="I20" s="34"/>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A21" s="151"/>
+      <c r="A21" s="144"/>
       <c r="B21" s="129" t="s">
         <v>295</v>
       </c>
@@ -21817,13 +21848,13 @@
       </c>
       <c r="E21" s="33"/>
       <c r="F21" s="33"/>
-      <c r="G21" s="146"/>
+      <c r="G21" s="159"/>
       <c r="H21" s="33"/>
       <c r="I21" s="34"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A22" s="151"/>
-      <c r="B22" s="144" t="s">
+      <c r="A22" s="144"/>
+      <c r="B22" s="162" t="s">
         <v>225</v>
       </c>
       <c r="C22" s="94" t="s">
@@ -21834,15 +21865,15 @@
       </c>
       <c r="E22" s="33"/>
       <c r="F22" s="33"/>
-      <c r="G22" s="144" t="s">
+      <c r="G22" s="162" t="s">
         <v>285</v>
       </c>
       <c r="H22" s="33"/>
       <c r="I22" s="34"/>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A23" s="151"/>
-      <c r="B23" s="145"/>
+      <c r="A23" s="144"/>
+      <c r="B23" s="161"/>
       <c r="C23" s="94" t="s">
         <v>228</v>
       </c>
@@ -21851,13 +21882,13 @@
       </c>
       <c r="E23" s="33"/>
       <c r="F23" s="33"/>
-      <c r="G23" s="145"/>
+      <c r="G23" s="161"/>
       <c r="H23" s="33"/>
       <c r="I23" s="34"/>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A24" s="151"/>
-      <c r="B24" s="145"/>
+      <c r="A24" s="144"/>
+      <c r="B24" s="161"/>
       <c r="C24" s="94" t="s">
         <v>274</v>
       </c>
@@ -21866,13 +21897,13 @@
       </c>
       <c r="E24" s="33"/>
       <c r="F24" s="33"/>
-      <c r="G24" s="146"/>
+      <c r="G24" s="159"/>
       <c r="H24" s="33"/>
       <c r="I24" s="34"/>
     </row>
     <row r="25" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A25" s="164"/>
-      <c r="B25" s="157"/>
+      <c r="B25" s="163"/>
       <c r="C25" s="95" t="s">
         <v>230</v>
       </c>
@@ -21888,10 +21919,10 @@
       <c r="I25" s="45"/>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A26" s="150" t="s">
+      <c r="A26" s="143" t="s">
         <v>232</v>
       </c>
-      <c r="B26" s="156" t="s">
+      <c r="B26" s="160" t="s">
         <v>233</v>
       </c>
       <c r="C26" s="91" t="s">
@@ -21902,15 +21933,15 @@
       </c>
       <c r="E26" s="31"/>
       <c r="F26" s="31"/>
-      <c r="G26" s="156" t="s">
+      <c r="G26" s="160" t="s">
         <v>286</v>
       </c>
       <c r="H26" s="31"/>
       <c r="I26" s="32"/>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A27" s="151"/>
-      <c r="B27" s="145"/>
+      <c r="A27" s="144"/>
+      <c r="B27" s="161"/>
       <c r="C27" s="92" t="s">
         <v>129</v>
       </c>
@@ -21919,13 +21950,13 @@
       </c>
       <c r="E27" s="33"/>
       <c r="F27" s="33"/>
-      <c r="G27" s="146"/>
+      <c r="G27" s="159"/>
       <c r="H27" s="33"/>
       <c r="I27" s="34"/>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A28" s="151"/>
-      <c r="B28" s="145"/>
+      <c r="A28" s="144"/>
+      <c r="B28" s="161"/>
       <c r="C28" s="100" t="s">
         <v>236</v>
       </c>
@@ -21934,15 +21965,15 @@
       </c>
       <c r="E28" s="33"/>
       <c r="F28" s="33"/>
-      <c r="G28" s="144" t="s">
+      <c r="G28" s="162" t="s">
         <v>289</v>
       </c>
       <c r="H28" s="33"/>
       <c r="I28" s="34"/>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A29" s="151"/>
-      <c r="B29" s="146"/>
+      <c r="A29" s="144"/>
+      <c r="B29" s="159"/>
       <c r="C29" s="100" t="s">
         <v>125</v>
       </c>
@@ -21951,7 +21982,7 @@
       </c>
       <c r="E29" s="33"/>
       <c r="F29" s="33"/>
-      <c r="G29" s="145"/>
+      <c r="G29" s="161"/>
       <c r="H29" s="33"/>
       <c r="I29" s="34"/>
     </row>
@@ -21970,15 +22001,15 @@
         <v>256</v>
       </c>
       <c r="F30" s="35"/>
-      <c r="G30" s="157"/>
+      <c r="G30" s="163"/>
       <c r="H30" s="35"/>
       <c r="I30" s="36"/>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A31" s="150" t="s">
+      <c r="A31" s="143" t="s">
         <v>67</v>
       </c>
-      <c r="B31" s="156" t="s">
+      <c r="B31" s="160" t="s">
         <v>71</v>
       </c>
       <c r="C31" s="93" t="s">
@@ -21989,15 +22020,15 @@
       </c>
       <c r="E31" s="55"/>
       <c r="F31" s="55"/>
-      <c r="G31" s="156" t="s">
+      <c r="G31" s="160" t="s">
         <v>287</v>
       </c>
       <c r="H31" s="55"/>
       <c r="I31" s="56"/>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A32" s="151"/>
-      <c r="B32" s="146"/>
+      <c r="A32" s="144"/>
+      <c r="B32" s="159"/>
       <c r="C32" s="89" t="s">
         <v>294</v>
       </c>
@@ -22006,13 +22037,13 @@
       </c>
       <c r="E32" s="33"/>
       <c r="F32" s="33"/>
-      <c r="G32" s="146"/>
+      <c r="G32" s="159"/>
       <c r="H32" s="33"/>
       <c r="I32" s="34"/>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A33" s="151"/>
-      <c r="B33" s="144" t="s">
+      <c r="A33" s="144"/>
+      <c r="B33" s="162" t="s">
         <v>257</v>
       </c>
       <c r="C33" s="97" t="s">
@@ -22023,15 +22054,15 @@
       </c>
       <c r="E33" s="33"/>
       <c r="F33" s="33"/>
-      <c r="G33" s="144" t="s">
+      <c r="G33" s="162" t="s">
         <v>288</v>
       </c>
       <c r="H33" s="33"/>
       <c r="I33" s="34"/>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A34" s="151"/>
-      <c r="B34" s="145"/>
+      <c r="A34" s="144"/>
+      <c r="B34" s="161"/>
       <c r="C34" s="97" t="s">
         <v>260</v>
       </c>
@@ -22040,13 +22071,13 @@
       </c>
       <c r="E34" s="33"/>
       <c r="F34" s="33"/>
-      <c r="G34" s="145"/>
+      <c r="G34" s="161"/>
       <c r="H34" s="33"/>
       <c r="I34" s="34"/>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A35" s="151"/>
-      <c r="B35" s="146"/>
+      <c r="A35" s="144"/>
+      <c r="B35" s="159"/>
       <c r="C35" s="97" t="s">
         <v>259</v>
       </c>
@@ -22057,13 +22088,13 @@
         <v>264</v>
       </c>
       <c r="F35" s="33"/>
-      <c r="G35" s="146"/>
+      <c r="G35" s="159"/>
       <c r="H35" s="33"/>
       <c r="I35" s="34"/>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A36" s="151"/>
-      <c r="B36" s="144" t="s">
+      <c r="A36" s="144"/>
+      <c r="B36" s="162" t="s">
         <v>242</v>
       </c>
       <c r="C36" s="99" t="s">
@@ -22076,15 +22107,15 @@
         <v>245</v>
       </c>
       <c r="F36" s="33"/>
-      <c r="G36" s="144" t="s">
+      <c r="G36" s="162" t="s">
         <v>291</v>
       </c>
       <c r="H36" s="33"/>
       <c r="I36" s="34"/>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A37" s="151"/>
-      <c r="B37" s="146"/>
+      <c r="A37" s="144"/>
+      <c r="B37" s="159"/>
       <c r="C37" s="99" t="s">
         <v>246</v>
       </c>
@@ -22095,13 +22126,13 @@
         <v>248</v>
       </c>
       <c r="F37" s="33"/>
-      <c r="G37" s="145"/>
+      <c r="G37" s="161"/>
       <c r="H37" s="33"/>
       <c r="I37" s="34"/>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A38" s="151"/>
-      <c r="B38" s="144" t="s">
+      <c r="A38" s="144"/>
+      <c r="B38" s="162" t="s">
         <v>270</v>
       </c>
       <c r="C38" s="95" t="s">
@@ -22114,13 +22145,13 @@
         <v>250</v>
       </c>
       <c r="F38" s="44"/>
-      <c r="G38" s="145"/>
+      <c r="G38" s="161"/>
       <c r="H38" s="44"/>
       <c r="I38" s="45"/>
     </row>
     <row r="39" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A39" s="164"/>
-      <c r="B39" s="157"/>
+      <c r="B39" s="163"/>
       <c r="C39" s="95" t="s">
         <v>272</v>
       </c>
@@ -22131,7 +22162,7 @@
         <v>252</v>
       </c>
       <c r="F39" s="44"/>
-      <c r="G39" s="157"/>
+      <c r="G39" s="163"/>
       <c r="H39" s="44"/>
       <c r="I39" s="45"/>
     </row>
@@ -22387,6 +22418,20 @@
     </row>
   </sheetData>
   <mergeCells count="29">
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="A3:I3"/>
+    <mergeCell ref="G4:G9"/>
+    <mergeCell ref="A4:A9"/>
+    <mergeCell ref="G10:G13"/>
+    <mergeCell ref="G14:G16"/>
+    <mergeCell ref="G17:G18"/>
+    <mergeCell ref="G19:G21"/>
+    <mergeCell ref="G22:G24"/>
+    <mergeCell ref="G26:G27"/>
+    <mergeCell ref="G28:G30"/>
+    <mergeCell ref="G31:G32"/>
+    <mergeCell ref="G33:G35"/>
+    <mergeCell ref="G36:G39"/>
     <mergeCell ref="A10:A25"/>
     <mergeCell ref="A26:A30"/>
     <mergeCell ref="A31:A39"/>
@@ -22402,20 +22447,6 @@
     <mergeCell ref="B33:B35"/>
     <mergeCell ref="B36:B37"/>
     <mergeCell ref="B38:B39"/>
-    <mergeCell ref="G26:G27"/>
-    <mergeCell ref="G28:G30"/>
-    <mergeCell ref="G31:G32"/>
-    <mergeCell ref="G33:G35"/>
-    <mergeCell ref="G36:G39"/>
-    <mergeCell ref="G10:G13"/>
-    <mergeCell ref="G14:G16"/>
-    <mergeCell ref="G17:G18"/>
-    <mergeCell ref="G19:G21"/>
-    <mergeCell ref="G22:G24"/>
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="A3:I3"/>
-    <mergeCell ref="G4:G9"/>
-    <mergeCell ref="A4:A9"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -22427,8 +22458,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="N30" sqref="N30"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A11" sqref="A11:A26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -22465,52 +22496,52 @@
       <c r="O1" s="84"/>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A2" s="165" t="s">
+      <c r="A2" s="170" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="167" t="s">
+      <c r="B2" s="165" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="167" t="s">
+      <c r="C2" s="165" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="167" t="s">
+      <c r="D2" s="165" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="167" t="s">
+      <c r="E2" s="165" t="s">
         <v>6</v>
       </c>
-      <c r="F2" s="167" t="s">
+      <c r="F2" s="165" t="s">
         <v>7</v>
       </c>
-      <c r="G2" s="167" t="s">
+      <c r="G2" s="165" t="s">
         <v>277</v>
       </c>
-      <c r="H2" s="169" t="s">
+      <c r="H2" s="167" t="s">
         <v>276</v>
       </c>
-      <c r="I2" s="170"/>
-      <c r="J2" s="171"/>
-      <c r="K2" s="167" t="s">
+      <c r="I2" s="168"/>
+      <c r="J2" s="169"/>
+      <c r="K2" s="165" t="s">
         <v>275</v>
       </c>
-      <c r="L2" s="167" t="s">
+      <c r="L2" s="165" t="s">
         <v>278</v>
       </c>
-      <c r="M2" s="169" t="s">
+      <c r="M2" s="167" t="s">
         <v>279</v>
       </c>
-      <c r="N2" s="170"/>
-      <c r="O2" s="171"/>
+      <c r="N2" s="168"/>
+      <c r="O2" s="169"/>
     </row>
     <row r="3" spans="1:15" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="166"/>
-      <c r="B3" s="168"/>
-      <c r="C3" s="168"/>
-      <c r="D3" s="168"/>
-      <c r="E3" s="168"/>
-      <c r="F3" s="168"/>
-      <c r="G3" s="168"/>
+      <c r="A3" s="171"/>
+      <c r="B3" s="166"/>
+      <c r="C3" s="166"/>
+      <c r="D3" s="166"/>
+      <c r="E3" s="166"/>
+      <c r="F3" s="166"/>
+      <c r="G3" s="166"/>
       <c r="H3" s="122" t="s">
         <v>297</v>
       </c>
@@ -22520,8 +22551,8 @@
       <c r="J3" s="122" t="s">
         <v>299</v>
       </c>
-      <c r="K3" s="168"/>
-      <c r="L3" s="168"/>
+      <c r="K3" s="166"/>
+      <c r="L3" s="166"/>
       <c r="M3" s="122" t="s">
         <v>300</v>
       </c>
@@ -22550,10 +22581,10 @@
       <c r="O4" s="86"/>
     </row>
     <row r="5" spans="1:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="150" t="s">
-        <v>10</v>
-      </c>
-      <c r="B5" s="156" t="s">
+      <c r="A5" s="172" t="s">
+        <v>356</v>
+      </c>
+      <c r="B5" s="160" t="s">
         <v>11</v>
       </c>
       <c r="C5" s="88" t="s">
@@ -22562,7 +22593,7 @@
       <c r="D5" s="85">
         <v>1</v>
       </c>
-      <c r="E5" s="156" t="s">
+      <c r="E5" s="160" t="s">
         <v>284</v>
       </c>
       <c r="F5" s="85"/>
@@ -22581,15 +22612,15 @@
       <c r="O5" s="110"/>
     </row>
     <row r="6" spans="1:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="151"/>
-      <c r="B6" s="145"/>
+      <c r="A6" s="144"/>
+      <c r="B6" s="161"/>
       <c r="C6" s="89" t="s">
         <v>13</v>
       </c>
       <c r="D6" s="81">
         <v>1</v>
       </c>
-      <c r="E6" s="145"/>
+      <c r="E6" s="161"/>
       <c r="F6" s="81"/>
       <c r="G6" s="113" t="s">
         <v>316</v>
@@ -22606,15 +22637,15 @@
       <c r="O6" s="107"/>
     </row>
     <row r="7" spans="1:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="151"/>
-      <c r="B7" s="146"/>
+      <c r="A7" s="144"/>
+      <c r="B7" s="159"/>
       <c r="C7" s="89" t="s">
         <v>15</v>
       </c>
       <c r="D7" s="81">
         <v>1</v>
       </c>
-      <c r="E7" s="145"/>
+      <c r="E7" s="161"/>
       <c r="F7" s="81"/>
       <c r="G7" s="113" t="s">
         <v>316</v>
@@ -22631,8 +22662,8 @@
       <c r="O7" s="107"/>
     </row>
     <row r="8" spans="1:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="151"/>
-      <c r="B8" s="144" t="s">
+      <c r="A8" s="144"/>
+      <c r="B8" s="162" t="s">
         <v>253</v>
       </c>
       <c r="C8" s="89" t="s">
@@ -22641,7 +22672,7 @@
       <c r="D8" s="81">
         <v>1</v>
       </c>
-      <c r="E8" s="145"/>
+      <c r="E8" s="161"/>
       <c r="F8" s="81"/>
       <c r="G8" s="107" t="s">
         <v>318</v>
@@ -22658,15 +22689,15 @@
       <c r="O8" s="107"/>
     </row>
     <row r="9" spans="1:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="151"/>
-      <c r="B9" s="145"/>
+      <c r="A9" s="144"/>
+      <c r="B9" s="161"/>
       <c r="C9" s="89" t="s">
         <v>254</v>
       </c>
       <c r="D9" s="81">
         <v>1</v>
       </c>
-      <c r="E9" s="145"/>
+      <c r="E9" s="161"/>
       <c r="F9" s="81"/>
       <c r="G9" s="107" t="s">
         <v>319</v>
@@ -22684,14 +22715,14 @@
     </row>
     <row r="10" spans="1:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="164"/>
-      <c r="B10" s="157"/>
+      <c r="B10" s="163"/>
       <c r="C10" s="90" t="s">
         <v>253</v>
       </c>
       <c r="D10" s="87">
         <v>1</v>
       </c>
-      <c r="E10" s="157"/>
+      <c r="E10" s="163"/>
       <c r="F10" s="87"/>
       <c r="G10" s="107" t="s">
         <v>319</v>
@@ -22708,10 +22739,10 @@
       <c r="O10" s="111"/>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A11" s="150" t="s">
-        <v>198</v>
-      </c>
-      <c r="B11" s="156" t="s">
+      <c r="A11" s="172" t="s">
+        <v>357</v>
+      </c>
+      <c r="B11" s="160" t="s">
         <v>103</v>
       </c>
       <c r="C11" s="96" t="s">
@@ -22720,7 +22751,7 @@
       <c r="D11" s="85">
         <v>2</v>
       </c>
-      <c r="E11" s="156" t="s">
+      <c r="E11" s="160" t="s">
         <v>288</v>
       </c>
       <c r="F11" s="85"/>
@@ -22739,15 +22770,15 @@
       <c r="O11" s="110"/>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A12" s="151"/>
-      <c r="B12" s="145"/>
+      <c r="A12" s="144"/>
+      <c r="B12" s="161"/>
       <c r="C12" s="97" t="s">
         <v>203</v>
       </c>
       <c r="D12" s="81">
         <v>1</v>
       </c>
-      <c r="E12" s="145"/>
+      <c r="E12" s="161"/>
       <c r="F12" s="81"/>
       <c r="G12" s="107" t="s">
         <v>348</v>
@@ -22764,15 +22795,15 @@
       <c r="O12" s="107"/>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A13" s="151"/>
-      <c r="B13" s="145"/>
+      <c r="A13" s="144"/>
+      <c r="B13" s="161"/>
       <c r="C13" s="97" t="s">
         <v>206</v>
       </c>
       <c r="D13" s="81">
         <v>1</v>
       </c>
-      <c r="E13" s="145"/>
+      <c r="E13" s="161"/>
       <c r="F13" s="81"/>
       <c r="G13" s="107" t="s">
         <v>348</v>
@@ -22789,15 +22820,15 @@
       <c r="O13" s="107"/>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A14" s="151"/>
-      <c r="B14" s="145"/>
+      <c r="A14" s="144"/>
+      <c r="B14" s="159"/>
       <c r="C14" s="97" t="s">
         <v>209</v>
       </c>
       <c r="D14" s="81">
         <v>2</v>
       </c>
-      <c r="E14" s="146"/>
+      <c r="E14" s="159"/>
       <c r="F14" s="81"/>
       <c r="G14" s="107" t="s">
         <v>350</v>
@@ -22814,8 +22845,8 @@
       <c r="O14" s="107"/>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A15" s="151"/>
-      <c r="B15" s="144" t="s">
+      <c r="A15" s="144"/>
+      <c r="B15" s="162" t="s">
         <v>111</v>
       </c>
       <c r="C15" s="98" t="s">
@@ -22824,7 +22855,7 @@
       <c r="D15" s="81">
         <v>2</v>
       </c>
-      <c r="E15" s="144" t="s">
+      <c r="E15" s="162" t="s">
         <v>288</v>
       </c>
       <c r="F15" s="81"/>
@@ -22843,15 +22874,15 @@
       <c r="O15" s="107"/>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A16" s="151"/>
-      <c r="B16" s="145"/>
+      <c r="A16" s="144"/>
+      <c r="B16" s="161"/>
       <c r="C16" s="97" t="s">
         <v>220</v>
       </c>
       <c r="D16" s="81">
         <v>1</v>
       </c>
-      <c r="E16" s="145"/>
+      <c r="E16" s="161"/>
       <c r="F16" s="81"/>
       <c r="G16" s="107" t="s">
         <v>348</v>
@@ -22868,15 +22899,15 @@
       <c r="O16" s="107"/>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A17" s="151"/>
-      <c r="B17" s="145"/>
+      <c r="A17" s="144"/>
+      <c r="B17" s="161"/>
       <c r="C17" s="97" t="s">
         <v>222</v>
       </c>
       <c r="D17" s="81">
         <v>1</v>
       </c>
-      <c r="E17" s="146"/>
+      <c r="E17" s="159"/>
       <c r="F17" s="81"/>
       <c r="G17" s="107" t="s">
         <v>348</v>
@@ -22893,8 +22924,8 @@
       <c r="O17" s="107"/>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A18" s="151"/>
-      <c r="B18" s="144" t="s">
+      <c r="A18" s="144"/>
+      <c r="B18" s="162" t="s">
         <v>180</v>
       </c>
       <c r="C18" s="94" t="s">
@@ -22903,7 +22934,7 @@
       <c r="D18" s="81">
         <v>1</v>
       </c>
-      <c r="E18" s="144" t="s">
+      <c r="E18" s="162" t="s">
         <v>292</v>
       </c>
       <c r="F18" s="81"/>
@@ -22922,15 +22953,15 @@
       <c r="O18" s="107"/>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A19" s="151"/>
-      <c r="B19" s="146"/>
+      <c r="A19" s="144"/>
+      <c r="B19" s="159"/>
       <c r="C19" s="94" t="s">
         <v>184</v>
       </c>
       <c r="D19" s="81">
         <v>2</v>
       </c>
-      <c r="E19" s="146"/>
+      <c r="E19" s="159"/>
       <c r="F19" s="81"/>
       <c r="G19" s="107" t="s">
         <v>345</v>
@@ -22947,8 +22978,8 @@
       <c r="O19" s="107"/>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A20" s="151"/>
-      <c r="B20" s="144" t="s">
+      <c r="A20" s="144"/>
+      <c r="B20" s="162" t="s">
         <v>115</v>
       </c>
       <c r="C20" s="99" t="s">
@@ -22957,7 +22988,7 @@
       <c r="D20" s="81">
         <v>1</v>
       </c>
-      <c r="E20" s="145" t="s">
+      <c r="E20" s="161" t="s">
         <v>307</v>
       </c>
       <c r="F20" s="81"/>
@@ -22976,15 +23007,15 @@
       <c r="O20" s="107"/>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A21" s="151"/>
-      <c r="B21" s="146"/>
+      <c r="A21" s="144"/>
+      <c r="B21" s="159"/>
       <c r="C21" s="99" t="s">
         <v>118</v>
       </c>
       <c r="D21" s="81">
         <v>2</v>
       </c>
-      <c r="E21" s="145"/>
+      <c r="E21" s="161"/>
       <c r="F21" s="81"/>
       <c r="G21" s="107" t="s">
         <v>330</v>
@@ -23001,7 +23032,7 @@
       <c r="O21" s="107"/>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A22" s="151"/>
+      <c r="A22" s="144"/>
       <c r="B22" s="126" t="s">
         <v>302</v>
       </c>
@@ -23011,7 +23042,7 @@
       <c r="D22" s="81">
         <v>1</v>
       </c>
-      <c r="E22" s="146"/>
+      <c r="E22" s="159"/>
       <c r="F22" s="81"/>
       <c r="G22" s="107" t="s">
         <v>333</v>
@@ -23028,8 +23059,8 @@
       <c r="O22" s="107"/>
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A23" s="151"/>
-      <c r="B23" s="144" t="s">
+      <c r="A23" s="144"/>
+      <c r="B23" s="162" t="s">
         <v>43</v>
       </c>
       <c r="C23" s="94" t="s">
@@ -23038,7 +23069,7 @@
       <c r="D23" s="81">
         <v>3</v>
       </c>
-      <c r="E23" s="144" t="s">
+      <c r="E23" s="162" t="s">
         <v>285</v>
       </c>
       <c r="F23" s="81"/>
@@ -23057,15 +23088,15 @@
       <c r="O23" s="107"/>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A24" s="151"/>
-      <c r="B24" s="145"/>
+      <c r="A24" s="144"/>
+      <c r="B24" s="161"/>
       <c r="C24" s="94" t="s">
         <v>178</v>
       </c>
       <c r="D24" s="81">
         <v>3</v>
       </c>
-      <c r="E24" s="145"/>
+      <c r="E24" s="161"/>
       <c r="F24" s="81"/>
       <c r="G24" s="107" t="s">
         <v>321</v>
@@ -23082,15 +23113,15 @@
       <c r="O24" s="107"/>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A25" s="151"/>
-      <c r="B25" s="145"/>
+      <c r="A25" s="144"/>
+      <c r="B25" s="161"/>
       <c r="C25" s="94" t="s">
         <v>280</v>
       </c>
       <c r="D25" s="81">
         <v>3</v>
       </c>
-      <c r="E25" s="146"/>
+      <c r="E25" s="159"/>
       <c r="F25" s="81"/>
       <c r="G25" s="107" t="s">
         <v>321</v>
@@ -23108,7 +23139,7 @@
     </row>
     <row r="26" spans="1:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26" s="164"/>
-      <c r="B26" s="157"/>
+      <c r="B26" s="163"/>
       <c r="C26" s="95" t="s">
         <v>273</v>
       </c>
@@ -23134,10 +23165,10 @@
       <c r="O26" s="112"/>
     </row>
     <row r="27" spans="1:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="150" t="s">
-        <v>45</v>
-      </c>
-      <c r="B27" s="156" t="s">
+      <c r="A27" s="172" t="s">
+        <v>358</v>
+      </c>
+      <c r="B27" s="160" t="s">
         <v>127</v>
       </c>
       <c r="C27" s="91" t="s">
@@ -23146,7 +23177,7 @@
       <c r="D27" s="85">
         <v>1</v>
       </c>
-      <c r="E27" s="156" t="s">
+      <c r="E27" s="160" t="s">
         <v>286</v>
       </c>
       <c r="F27" s="85"/>
@@ -23165,15 +23196,15 @@
       <c r="O27" s="110"/>
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A28" s="151"/>
-      <c r="B28" s="145"/>
+      <c r="A28" s="144"/>
+      <c r="B28" s="161"/>
       <c r="C28" s="92" t="s">
         <v>129</v>
       </c>
       <c r="D28" s="81">
         <v>1</v>
       </c>
-      <c r="E28" s="146"/>
+      <c r="E28" s="159"/>
       <c r="F28" s="81"/>
       <c r="G28" s="110" t="s">
         <v>324</v>
@@ -23190,15 +23221,15 @@
       <c r="O28" s="107"/>
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A29" s="151"/>
-      <c r="B29" s="145"/>
+      <c r="A29" s="144"/>
+      <c r="B29" s="161"/>
       <c r="C29" s="100" t="s">
         <v>132</v>
       </c>
       <c r="D29" s="81">
         <v>3</v>
       </c>
-      <c r="E29" s="144" t="s">
+      <c r="E29" s="162" t="s">
         <v>289</v>
       </c>
       <c r="F29" s="81"/>
@@ -23217,15 +23248,15 @@
       <c r="O29" s="107"/>
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A30" s="151"/>
-      <c r="B30" s="146"/>
+      <c r="A30" s="144"/>
+      <c r="B30" s="159"/>
       <c r="C30" s="100" t="s">
         <v>125</v>
       </c>
       <c r="D30" s="81">
         <v>3</v>
       </c>
-      <c r="E30" s="145"/>
+      <c r="E30" s="161"/>
       <c r="F30" s="81"/>
       <c r="G30" s="107" t="s">
         <v>337</v>
@@ -23252,7 +23283,7 @@
       <c r="D31" s="87">
         <v>2</v>
       </c>
-      <c r="E31" s="157"/>
+      <c r="E31" s="163"/>
       <c r="F31" s="87"/>
       <c r="G31" s="111" t="s">
         <v>338</v>
@@ -23269,10 +23300,10 @@
       <c r="O31" s="111"/>
     </row>
     <row r="32" spans="1:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A32" s="150" t="s">
-        <v>67</v>
-      </c>
-      <c r="B32" s="156" t="s">
+      <c r="A32" s="172" t="s">
+        <v>359</v>
+      </c>
+      <c r="B32" s="160" t="s">
         <v>71</v>
       </c>
       <c r="C32" s="93" t="s">
@@ -23281,7 +23312,7 @@
       <c r="D32" s="83">
         <v>3</v>
       </c>
-      <c r="E32" s="156" t="s">
+      <c r="E32" s="160" t="s">
         <v>287</v>
       </c>
       <c r="F32" s="83"/>
@@ -23300,15 +23331,15 @@
       <c r="O32" s="113"/>
     </row>
     <row r="33" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A33" s="151"/>
-      <c r="B33" s="146"/>
+      <c r="A33" s="144"/>
+      <c r="B33" s="159"/>
       <c r="C33" s="89" t="s">
         <v>293</v>
       </c>
       <c r="D33" s="81">
         <v>3</v>
       </c>
-      <c r="E33" s="146"/>
+      <c r="E33" s="159"/>
       <c r="F33" s="81"/>
       <c r="G33" s="123" t="s">
         <v>326</v>
@@ -23325,8 +23356,8 @@
       <c r="O33" s="107"/>
     </row>
     <row r="34" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A34" s="151"/>
-      <c r="B34" s="144" t="s">
+      <c r="A34" s="144"/>
+      <c r="B34" s="162" t="s">
         <v>257</v>
       </c>
       <c r="C34" s="97" t="s">
@@ -23335,7 +23366,7 @@
       <c r="D34" s="81">
         <v>2</v>
       </c>
-      <c r="E34" s="144" t="s">
+      <c r="E34" s="162" t="s">
         <v>288</v>
       </c>
       <c r="F34" s="81"/>
@@ -23354,15 +23385,15 @@
       <c r="O34" s="107"/>
     </row>
     <row r="35" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A35" s="151"/>
-      <c r="B35" s="145"/>
+      <c r="A35" s="144"/>
+      <c r="B35" s="161"/>
       <c r="C35" s="97" t="s">
         <v>260</v>
       </c>
       <c r="D35" s="81">
         <v>2</v>
       </c>
-      <c r="E35" s="145"/>
+      <c r="E35" s="161"/>
       <c r="F35" s="81"/>
       <c r="G35" s="107" t="s">
         <v>353</v>
@@ -23379,15 +23410,15 @@
       <c r="O35" s="107"/>
     </row>
     <row r="36" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A36" s="151"/>
-      <c r="B36" s="146"/>
+      <c r="A36" s="144"/>
+      <c r="B36" s="159"/>
       <c r="C36" s="97" t="s">
         <v>259</v>
       </c>
       <c r="D36" s="81">
         <v>2</v>
       </c>
-      <c r="E36" s="146"/>
+      <c r="E36" s="159"/>
       <c r="F36" s="81"/>
       <c r="G36" s="107" t="s">
         <v>354</v>
@@ -23404,8 +23435,8 @@
       <c r="O36" s="107"/>
     </row>
     <row r="37" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A37" s="151"/>
-      <c r="B37" s="144" t="s">
+      <c r="A37" s="144"/>
+      <c r="B37" s="162" t="s">
         <v>154</v>
       </c>
       <c r="C37" s="99" t="s">
@@ -23414,7 +23445,7 @@
       <c r="D37" s="81">
         <v>2</v>
       </c>
-      <c r="E37" s="144" t="s">
+      <c r="E37" s="162" t="s">
         <v>291</v>
       </c>
       <c r="F37" s="81"/>
@@ -23433,15 +23464,15 @@
       <c r="O37" s="107"/>
     </row>
     <row r="38" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A38" s="151"/>
-      <c r="B38" s="146"/>
+      <c r="A38" s="144"/>
+      <c r="B38" s="159"/>
       <c r="C38" s="99" t="s">
         <v>92</v>
       </c>
       <c r="D38" s="81">
         <v>3</v>
       </c>
-      <c r="E38" s="145"/>
+      <c r="E38" s="161"/>
       <c r="F38" s="81"/>
       <c r="G38" s="107" t="s">
         <v>337</v>
@@ -23458,8 +23489,8 @@
       <c r="O38" s="107"/>
     </row>
     <row r="39" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A39" s="151"/>
-      <c r="B39" s="144" t="s">
+      <c r="A39" s="144"/>
+      <c r="B39" s="162" t="s">
         <v>269</v>
       </c>
       <c r="C39" s="95" t="s">
@@ -23468,7 +23499,7 @@
       <c r="D39" s="82">
         <v>2</v>
       </c>
-      <c r="E39" s="145"/>
+      <c r="E39" s="161"/>
       <c r="F39" s="82"/>
       <c r="G39" s="107" t="s">
         <v>341</v>
@@ -23486,14 +23517,14 @@
     </row>
     <row r="40" spans="1:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A40" s="164"/>
-      <c r="B40" s="157"/>
+      <c r="B40" s="163"/>
       <c r="C40" s="95" t="s">
         <v>272</v>
       </c>
       <c r="D40" s="82">
         <v>3</v>
       </c>
-      <c r="E40" s="157"/>
+      <c r="E40" s="163"/>
       <c r="F40" s="82"/>
       <c r="G40" s="112" t="s">
         <v>340</v>
@@ -23509,9 +23540,9 @@
       <c r="N40" s="112"/>
       <c r="O40" s="112"/>
     </row>
-    <row r="41" spans="1:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A41" s="51" t="s">
-        <v>68</v>
+    <row r="41" spans="1:16" ht="24.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A41" s="173" t="s">
+        <v>360</v>
       </c>
       <c r="B41" s="52" t="s">
         <v>69</v>
@@ -23885,16 +23916,18 @@
     </row>
   </sheetData>
   <mergeCells count="38">
-    <mergeCell ref="K2:K3"/>
-    <mergeCell ref="L2:L3"/>
-    <mergeCell ref="H2:J2"/>
-    <mergeCell ref="M2:O2"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="E2:E3"/>
-    <mergeCell ref="G2:G3"/>
-    <mergeCell ref="F2:F3"/>
+    <mergeCell ref="A27:A31"/>
+    <mergeCell ref="B27:B30"/>
+    <mergeCell ref="A32:A40"/>
+    <mergeCell ref="B32:B33"/>
+    <mergeCell ref="B34:B36"/>
+    <mergeCell ref="B37:B38"/>
+    <mergeCell ref="B39:B40"/>
+    <mergeCell ref="B18:B19"/>
+    <mergeCell ref="B23:B26"/>
+    <mergeCell ref="B20:B21"/>
+    <mergeCell ref="E29:E31"/>
+    <mergeCell ref="E37:E40"/>
     <mergeCell ref="A2:A3"/>
     <mergeCell ref="E23:E25"/>
     <mergeCell ref="E27:E28"/>
@@ -23911,18 +23944,16 @@
     <mergeCell ref="A11:A26"/>
     <mergeCell ref="B11:B14"/>
     <mergeCell ref="B15:B17"/>
-    <mergeCell ref="B18:B19"/>
-    <mergeCell ref="B23:B26"/>
-    <mergeCell ref="B20:B21"/>
-    <mergeCell ref="E29:E31"/>
-    <mergeCell ref="E37:E40"/>
-    <mergeCell ref="A27:A31"/>
-    <mergeCell ref="B27:B30"/>
-    <mergeCell ref="A32:A40"/>
-    <mergeCell ref="B32:B33"/>
-    <mergeCell ref="B34:B36"/>
-    <mergeCell ref="B37:B38"/>
-    <mergeCell ref="B39:B40"/>
+    <mergeCell ref="K2:K3"/>
+    <mergeCell ref="L2:L3"/>
+    <mergeCell ref="H2:J2"/>
+    <mergeCell ref="M2:O2"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="G2:G3"/>
+    <mergeCell ref="F2:F3"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -23949,12 +23980,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="6.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="147"/>
-      <c r="B1" s="148"/>
-      <c r="C1" s="148"/>
-      <c r="D1" s="148"/>
-      <c r="E1" s="148"/>
-      <c r="F1" s="149"/>
+      <c r="A1" s="154"/>
+      <c r="B1" s="155"/>
+      <c r="C1" s="155"/>
+      <c r="D1" s="155"/>
+      <c r="E1" s="155"/>
+      <c r="F1" s="156"/>
     </row>
     <row r="2" spans="1:6" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="28" t="s">
@@ -23977,15 +24008,15 @@
       </c>
     </row>
     <row r="3" spans="1:6" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="158"/>
-      <c r="B3" s="159"/>
-      <c r="C3" s="159"/>
-      <c r="D3" s="159"/>
-      <c r="E3" s="159"/>
-      <c r="F3" s="160"/>
+      <c r="A3" s="145"/>
+      <c r="B3" s="146"/>
+      <c r="C3" s="146"/>
+      <c r="D3" s="146"/>
+      <c r="E3" s="146"/>
+      <c r="F3" s="147"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4" s="154" t="s">
+      <c r="A4" s="158" t="s">
         <v>10</v>
       </c>
       <c r="B4" s="74" t="s">
@@ -23994,7 +24025,7 @@
       <c r="C4" s="117">
         <v>1</v>
       </c>
-      <c r="D4" s="144" t="s">
+      <c r="D4" s="162" t="s">
         <v>283</v>
       </c>
       <c r="E4" s="33"/>
@@ -24008,12 +24039,12 @@
       <c r="C5" s="118">
         <v>1</v>
       </c>
-      <c r="D5" s="157"/>
+      <c r="D5" s="163"/>
       <c r="E5" s="35"/>
       <c r="F5" s="36"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A6" s="150" t="s">
+      <c r="A6" s="143" t="s">
         <v>23</v>
       </c>
       <c r="B6" s="76" t="s">
@@ -24022,26 +24053,26 @@
       <c r="C6" s="116">
         <v>1</v>
       </c>
-      <c r="D6" s="156" t="s">
+      <c r="D6" s="160" t="s">
         <v>308</v>
       </c>
       <c r="E6" s="31"/>
       <c r="F6" s="32"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A7" s="151"/>
+      <c r="A7" s="144"/>
       <c r="B7" s="74" t="s">
         <v>111</v>
       </c>
       <c r="C7" s="117">
         <v>1</v>
       </c>
-      <c r="D7" s="146"/>
+      <c r="D7" s="159"/>
       <c r="E7" s="33"/>
       <c r="F7" s="34"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A8" s="151"/>
+      <c r="A8" s="144"/>
       <c r="B8" s="77" t="s">
         <v>266</v>
       </c>
@@ -24055,28 +24086,28 @@
       <c r="F8" s="34"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A9" s="151"/>
+      <c r="A9" s="144"/>
       <c r="B9" s="74" t="s">
         <v>115</v>
       </c>
       <c r="C9" s="117">
         <v>1</v>
       </c>
-      <c r="D9" s="144" t="s">
+      <c r="D9" s="162" t="s">
         <v>289</v>
       </c>
       <c r="E9" s="33"/>
       <c r="F9" s="34"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A10" s="151"/>
+      <c r="A10" s="144"/>
       <c r="B10" s="77" t="s">
         <v>295</v>
       </c>
       <c r="C10" s="117">
         <v>1</v>
       </c>
-      <c r="D10" s="146"/>
+      <c r="D10" s="159"/>
       <c r="E10" s="33"/>
       <c r="F10" s="34"/>
     </row>
@@ -24095,7 +24126,7 @@
       <c r="F11" s="34"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A12" s="150" t="s">
+      <c r="A12" s="143" t="s">
         <v>45</v>
       </c>
       <c r="B12" s="73" t="s">
@@ -24125,7 +24156,7 @@
       <c r="F13" s="36"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A14" s="150" t="s">
+      <c r="A14" s="143" t="s">
         <v>67</v>
       </c>
       <c r="B14" s="78" t="s">
@@ -24141,7 +24172,7 @@
       <c r="F14" s="56"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A15" s="151"/>
+      <c r="A15" s="144"/>
       <c r="B15" s="78" t="s">
         <v>267</v>
       </c>
@@ -24155,14 +24186,14 @@
       <c r="F15" s="34"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A16" s="151"/>
+      <c r="A16" s="144"/>
       <c r="B16" s="74" t="s">
         <v>268</v>
       </c>
       <c r="C16" s="117">
         <v>3</v>
       </c>
-      <c r="D16" s="144" t="s">
+      <c r="D16" s="162" t="s">
         <v>289</v>
       </c>
       <c r="E16" s="33"/>
@@ -24176,7 +24207,7 @@
       <c r="C17" s="121">
         <v>3</v>
       </c>
-      <c r="D17" s="157"/>
+      <c r="D17" s="163"/>
       <c r="E17" s="44"/>
       <c r="F17" s="45"/>
     </row>
